--- a/Analyzed Data/215/215 NM9505 30C Discharge/215 NM9505 30C Discharge Fitted (sphere).xlsx
+++ b/Analyzed Data/215/215 NM9505 30C Discharge/215 NM9505 30C Discharge Fitted (sphere).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Initial SOC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dc (cm^2/s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dt* (cm^2/s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>dq/dV (mAh/gV)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Rfit (Ohm)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>micR (Ohmcm^2)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Rdrop (Ohm)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Cap Span</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Fit Error</t>
         </is>
@@ -493,27 +508,36 @@
         <v>4.086763984158416</v>
       </c>
       <c r="C2" t="n">
+        <v>0.3953448513010058</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3945585669940105</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.906700308297991e-12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
+        <v>2.49649466623822e-13</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.04312873413679019</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>128.0345514743992</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>551.1931882555061</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>1538.820907411782</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>224.5659309090185</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>0.3945479873911803</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>0.01776968778500907</v>
       </c>
     </row>
@@ -525,27 +549,36 @@
         <v>4.082732711881188</v>
       </c>
       <c r="C3" t="n">
+        <v>0.4013577290135858</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3961311578714155</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.949698864821866e-12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
+        <v>1.750212332024164e-13</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.02849096877572545</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>150.0770558262116</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>516.736432095987</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>1442.624550291202</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>217.9937760669272</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>0.6785818746880483</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>0.04095057771177035</v>
       </c>
     </row>
@@ -557,27 +590,36 @@
         <v>4.059921285148516</v>
       </c>
       <c r="C4" t="n">
+        <v>0.4144574484244418</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4065843237315794</v>
+      </c>
+      <c r="E4" t="n">
         <v>2.161079160810686e-12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>1.729848706689579e-13</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.02764094971352959</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>204.4928312585147</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>502.1784191742794</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>1401.981496037945</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>218.6334163737289</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>0.7193291846797032</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>0.03781453555194934</v>
       </c>
     </row>
@@ -589,27 +631,36 @@
         <v>4.0346320990099</v>
       </c>
       <c r="C5" t="n">
+        <v>0.4342731621022442</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4223305959962106</v>
+      </c>
+      <c r="E5" t="n">
         <v>1.509992825652373e-12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
+        <v>1.779554345552451e-13</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0279535886005154</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>304.7953779252508</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>487.6499188741392</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>1361.420835108967</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>226.9924782952451</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>0.7771828561427723</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>0.03242946000938209</v>
       </c>
     </row>
@@ -621,27 +672,36 @@
         <v>4.008910464356437</v>
       </c>
       <c r="C6" t="n">
+        <v>0.4626351763044796</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4462157513294367</v>
+      </c>
+      <c r="E6" t="n">
         <v>1.303624130826374e-12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
+        <v>2.191831024576675e-13</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.03418865156943204</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>440.0122791428908</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>478.5404270082872</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>1335.988959610947</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>216.4194373383569</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>0.7545727804757489</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>0.0301898543409161</v>
       </c>
     </row>
@@ -653,27 +713,36 @@
         <v>3.984457182178217</v>
       </c>
       <c r="C7" t="n">
+        <v>0.4935123665498889</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4790546245463357</v>
+      </c>
+      <c r="E7" t="n">
         <v>1.976525331959526e-12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
+        <v>2.985031329395171e-13</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.04471680046516059</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
         <v>397.3888037478622</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>457.09509164736</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>1276.117881515267</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>210.4530179529208</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>0.7500824705885404</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>0.04094164214386394</v>
       </c>
     </row>
@@ -685,27 +754,36 @@
         <v>3.960498208910892</v>
       </c>
       <c r="C8" t="n">
+        <v>0.5194316336886555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5079701317843475</v>
+      </c>
+      <c r="E8" t="n">
         <v>2.383343725800233e-12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
+        <v>2.803684969418847e-13</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.04082634396670108</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>309.1208788788534</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>444.9173252438267</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>1242.119998474218</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>209.4854576410115</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>0.7195566644867613</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>0.04203858465023596</v>
       </c>
     </row>
@@ -717,27 +795,36 @@
         <v>3.936027518811883</v>
       </c>
       <c r="C9" t="n">
+        <v>0.5405044806826761</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5308931589189487</v>
+      </c>
+      <c r="E9" t="n">
         <v>2.595546658787783e-12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
+        <v>2.517874926620617e-13</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.03421184543455364</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>253.6227015986788</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>417.2663705362862</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>1164.92407493872</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>203.2239093083575</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>0.7338725305107531</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>0.0491432669498552</v>
       </c>
     </row>
@@ -749,27 +836,36 @@
         <v>3.911038171287127</v>
       </c>
       <c r="C10" t="n">
+        <v>0.5586277626557776</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5501158249045301</v>
+      </c>
+      <c r="E10" t="n">
         <v>2.990909733906777e-12</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
+        <v>2.537730207227196e-13</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0327241759155192</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>220.2276796641751</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>398.8846804819175</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>1113.606080500599</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>202.4393629973212</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>0.7179127717841367</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>0.04987267232265341</v>
       </c>
     </row>
@@ -781,27 +877,36 @@
         <v>3.885583688118811</v>
       </c>
       <c r="C11" t="n">
+        <v>0.5754834054789475</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.567139722828232</v>
+      </c>
+      <c r="E11" t="n">
         <v>2.995552141544106e-12</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
+        <v>2.483095285521284e-13</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.03084328890668146</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>213.1798787125041</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>387.7853833860941</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>1082.619067611916</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>211.3317363311362</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>0.7290430538417969</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>0.04886123702347883</v>
       </c>
     </row>
@@ -813,27 +918,36 @@
         <v>3.859794354455446</v>
       </c>
       <c r="C12" t="n">
+        <v>0.5929830292137794</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5838271105008012</v>
+      </c>
+      <c r="E12" t="n">
         <v>2.756483383486743e-12</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
+        <v>2.540647506780011e-13</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.03036828926782447</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>234.1779770986294</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>377.72240512654</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>1054.525249207444</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>203.3806411353027</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>0.7210075603227643</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>0.04980313388819309</v>
       </c>
     </row>
@@ -845,27 +959,36 @@
         <v>3.834065058415841</v>
       </c>
       <c r="C13" t="n">
+        <v>0.6131438263005569</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.602138969858403</v>
+      </c>
+      <c r="E13" t="n">
         <v>2.362439281532512e-12</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
+        <v>2.674057835768392e-13</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.03108451414957028</v>
       </c>
-      <c r="E13" t="n">
+      <c r="H13" t="n">
         <v>282.6339088909181</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>373.7773763623238</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>1043.511519589467</v>
       </c>
-      <c r="H13" t="n">
+      <c r="K13" t="n">
         <v>201.3364258925053</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>0.7595615982971657</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>0.04541069947748708</v>
       </c>
     </row>
@@ -877,27 +1000,36 @@
         <v>3.808464500990099</v>
       </c>
       <c r="C14" t="n">
+        <v>0.6374309933471513</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6241487038843817</v>
+      </c>
+      <c r="E14" t="n">
         <v>2.049255533755588e-12</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
+        <v>2.919085273815125e-13</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.03342939053689955</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>346.5586558909271</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>377.9283222880399</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>1055.100128650918</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>197.2136393478827</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>0.7780030322943904</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>0.04012385624900095</v>
       </c>
     </row>
@@ -909,27 +1041,36 @@
         <v>3.783275386138613</v>
       </c>
       <c r="C15" t="n">
+        <v>0.6654508989294201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6507133045139808</v>
+      </c>
+      <c r="E15" t="n">
         <v>1.970735218652647e-12</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
+        <v>3.291717295628528e-13</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.03920557425000482</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
         <v>391.4464575340089</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>408.0383870102531</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>1139.161394474445</v>
       </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
         <v>200.6250504719364</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>0.7903957465091551</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>0.03584742600290578</v>
       </c>
     </row>
@@ -941,27 +1082,36 @@
         <v>3.758560252475249</v>
       </c>
       <c r="C16" t="n">
+        <v>0.6948190872936281</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6801885153023619</v>
+      </c>
+      <c r="E16" t="n">
         <v>1.998697983296673e-12</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
+        <v>3.535896831457803e-13</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.04592033650597251</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>394.8969240225852</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>467.1194861713435</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
         <v>1304.103981863262</v>
       </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
         <v>210.4476877674935</v>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>0.7748393562689538</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>0.03697799707038559</v>
       </c>
     </row>
@@ -973,27 +1123,36 @@
         <v>3.734191149504952</v>
       </c>
       <c r="C17" t="n">
+        <v>0.7235505460459429</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7094496813160088</v>
+      </c>
+      <c r="E17" t="n">
         <v>1.853259317948405e-12</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
+        <v>3.367416604971057e-13</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.04948773185247603</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
         <v>382.6022336271876</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
         <v>560.360744627809</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>1564.414887374097</v>
       </c>
-      <c r="H17" t="n">
+      <c r="K17" t="n">
         <v>223.1602079526677</v>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>0.7318309262763599</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>0.03627050238452956</v>
       </c>
     </row>
@@ -1005,27 +1164,36 @@
         <v>3.719897438613862</v>
       </c>
       <c r="C18" t="n">
+        <v>0.7598969247737052</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7376514924416421</v>
+      </c>
+      <c r="E18" t="n">
         <v>9.799353430361299e-13</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
+        <v>1.886059060946203e-13</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.03757822143222603</v>
       </c>
-      <c r="E18" t="n">
+      <c r="H18" t="n">
         <v>369.6685538958825</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
         <v>832.8755994165878</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>2325.221742510464</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>247.5625078949939</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>0.8973788581550549</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>0.06226920420864806</v>
       </c>
     </row>
@@ -1037,27 +1205,36 @@
         <v>3.680286084158415</v>
       </c>
       <c r="C19" t="n">
+        <v>0.8004731053147387</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7821423775059956</v>
+      </c>
+      <c r="E19" t="n">
         <v>4.743346329593646e-13</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
+        <v>1.406465123413499e-13</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.03596843262738796</v>
       </c>
-      <c r="E19" t="n">
+      <c r="H19" t="n">
         <v>498.5337361729096</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
         <v>1221.225806376595</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>3409.417684334645</v>
       </c>
-      <c r="H19" t="n">
+      <c r="K19" t="n">
         <v>244.2465861004792</v>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>0.8172475958942629</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>0.06123208860704812</v>
       </c>
     </row>
@@ -1069,27 +1246,36 @@
         <v>3.656170230693068</v>
       </c>
       <c r="C20" t="n">
+        <v>0.8394770966724348</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8188038533690576</v>
+      </c>
+      <c r="E20" t="n">
         <v>5.604893066607411e-13</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
+        <v>2.420575809220117e-13</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.08908299362670882</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
         <v>612.6316753060333</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
         <v>2082.96451680068</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
         <v>5815.219447820795</v>
       </c>
-      <c r="H20" t="n">
+      <c r="K20" t="n">
         <v>275.6399744846408</v>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>0.7410023112092282</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>0.04165016219224604</v>
       </c>
     </row>
@@ -1101,27 +1287,36 @@
         <v>3.63382874950495</v>
       </c>
       <c r="C21" t="n">
+        <v>0.8712956093766455</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8601503584170357</v>
+      </c>
+      <c r="E21" t="n">
         <v>5.187177321035278e-13</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
+        <v>1.606003645957997e-13</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.06115208482999054</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>365.4908871153665</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
         <v>2589.747772191981</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
         <v>7230.056723641482</v>
       </c>
-      <c r="H21" t="n">
+      <c r="K21" t="n">
         <v>271.5751375594496</v>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>0.6074841292869102</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>0.1020016846308958</v>
       </c>
     </row>
@@ -1133,27 +1328,36 @@
         <v>3.6139173019802</v>
       </c>
       <c r="C22" t="n">
+        <v>0.8900558259483171</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8824408815372173</v>
+      </c>
+      <c r="E22" t="n">
         <v>2.42485559541254e-13</v>
       </c>
-      <c r="D22" t="n">
+      <c r="F22" t="n">
+        <v>6.619389649678148e-14</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.03924998715423961</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>281.2054713822546</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>4621.508110813503</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
         <v>12902.32436870451</v>
       </c>
-      <c r="H22" t="n">
+      <c r="K22" t="n">
         <v>278.2121454863586</v>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>0.4576201258158754</v>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
         <v>0.07405491324671915</v>
       </c>
     </row>
@@ -1165,27 +1369,36 @@
         <v>3.596100117821783</v>
       </c>
       <c r="C23" t="n">
+        <v>0.9044564916626388</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8976707907523327</v>
+      </c>
+      <c r="E23" t="n">
         <v>1.014358180153943e-13</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
+        <v>3.120566711895497e-14</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.02572915729837568</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>279.8551043596152</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>7277.041328754243</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
         <v>20316.04087167306</v>
       </c>
-      <c r="H23" t="n">
+      <c r="K23" t="n">
         <v>285.8014453609143</v>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>0.3358088569128542</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>0.03442577030560189</v>
       </c>
     </row>
@@ -1197,27 +1410,36 @@
         <v>3.579995700990099</v>
       </c>
       <c r="C24" t="n">
+        <v>0.9184620335390244</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9112422100408074</v>
+      </c>
+      <c r="E24" t="n">
         <v>4.947544350879867e-14</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
+        <v>2.051503917224249e-14</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.01954533085594181</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>326.8932639598074</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>9702.89220640542</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
         <v>27088.5303151791</v>
       </c>
-      <c r="H24" t="n">
+      <c r="K24" t="n">
         <v>276.7491560224752</v>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>0.2613281831011582</v>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>0.02970250107098046</v>
       </c>
     </row>
@@ -1229,27 +1451,36 @@
         <v>3.565677528712873</v>
       </c>
       <c r="C25" t="n">
+        <v>0.9301687292002</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9256818795233283</v>
+      </c>
+      <c r="E25" t="n">
         <v>1.160920236070774e-14</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" t="n">
+        <v>6.985274865089424e-15</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.009890350072882722</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>411.4291243270392</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>16625.24671262307</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
         <v>46414.35666727476</v>
       </c>
-      <c r="H25" t="n">
+      <c r="K25" t="n">
         <v>286.7908536109389</v>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
         <v>0.09706347593403772</v>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>0.01712366725346766</v>
       </c>
     </row>
@@ -1261,27 +1492,36 @@
         <v>3.558555022772276</v>
       </c>
       <c r="C26" t="n">
+        <v>0.9389319388249725</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.934655601469055</v>
+      </c>
+      <c r="E26" t="n">
         <v>5.118090596682661e-15</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
+        <v>3.891301957264786e-15</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.006082408800308757</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>458.9204808212863</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
         <v>20791.41487451928</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
         <v>58045.46316118771</v>
       </c>
-      <c r="H26" t="n">
+      <c r="K26" t="n">
         <v>297.1156007553755</v>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
         <v>0.06709568411756578</v>
       </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
         <v>0.02318974351466776</v>
       </c>
     </row>
@@ -1293,27 +1533,36 @@
         <v>3.552400014851485</v>
       </c>
       <c r="C27" t="n">
+        <v>0.947562562059291</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9432082975998082</v>
+      </c>
+      <c r="E27" t="n">
         <v>2.586742529356939e-15</v>
       </c>
-      <c r="D27" t="n">
+      <c r="F27" t="n">
+        <v>2.516020370598087e-15</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.0039030101898773</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>508.7595090175574</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
         <v>23811.55676336728</v>
       </c>
-      <c r="G27" t="n">
+      <c r="J27" t="n">
         <v>66477.09399577467</v>
       </c>
-      <c r="H27" t="n">
+      <c r="K27" t="n">
         <v>303.4292824671454</v>
       </c>
-      <c r="I27" t="n">
+      <c r="L27" t="n">
         <v>0.04979931270732743</v>
       </c>
-      <c r="J27" t="n">
+      <c r="M27" t="n">
         <v>0.02761981923138427</v>
       </c>
     </row>
@@ -1325,27 +1574,36 @@
         <v>3.546779239603963</v>
       </c>
       <c r="C28" t="n">
+        <v>0.9558206282337156</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9519168480966865</v>
+      </c>
+      <c r="E28" t="n">
         <v>1.295750292130083e-15</v>
       </c>
-      <c r="D28" t="n">
+      <c r="F28" t="n">
+        <v>1.618286898704006e-15</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.002238678328891197</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>555.1781559990466</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
         <v>24985.71934683433</v>
       </c>
-      <c r="G28" t="n">
+      <c r="J28" t="n">
         <v>69755.12059450356</v>
       </c>
-      <c r="H28" t="n">
+      <c r="K28" t="n">
         <v>301.5546878016427</v>
       </c>
-      <c r="I28" t="n">
+      <c r="L28" t="n">
         <v>0.03203094398643756</v>
       </c>
-      <c r="J28" t="n">
+      <c r="M28" t="n">
         <v>0.02674610869495479</v>
       </c>
     </row>
@@ -1357,27 +1615,36 @@
         <v>3.542164981188118</v>
       </c>
       <c r="C29" t="n">
+        <v>0.9629482742543026</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9597244299942662</v>
+      </c>
+      <c r="E29" t="n">
         <v>2.029831677692318e-16</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>3.187859644474582e-16</v>
+      </c>
+      <c r="G29" t="n">
         <v>4.478561036854022e-05</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>589.8652316831657</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
         <v>3003.167261767008</v>
       </c>
-      <c r="G29" t="n">
+      <c r="J29" t="n">
         <v>8384.241077956574</v>
       </c>
-      <c r="H29" t="n">
+      <c r="K29" t="n">
         <v>313.3064984639816</v>
       </c>
-      <c r="I29" t="n">
+      <c r="L29" t="n">
         <v>0.02355218691703487</v>
       </c>
-      <c r="J29" t="n">
+      <c r="M29" t="n">
         <v>0.1254277231516228</v>
       </c>
     </row>
@@ -1388,18 +1655,25 @@
       <c r="B30" t="n">
         <v>3.538570285148517</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>-54.99601541015446</v>
-      </c>
+      <c r="C30" t="n">
+        <v>0.9663109079428857</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9661721397312817</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>314.4207003359174</v>
+        <v>-54.99601541015446</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>314.4207003359174</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1409,27 +1683,36 @@
         <v>3.540116200990099</v>
       </c>
       <c r="C31" t="n">
+        <v>0.9690475367039741</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9676898879449746</v>
+      </c>
+      <c r="E31" t="n">
         <v>1.294473969883915e-16</v>
       </c>
-      <c r="D31" t="n">
+      <c r="F31" t="n">
+        <v>2.356328742841317e-16</v>
+      </c>
+      <c r="G31" t="n">
         <v>2.545455576178514e-05</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>574.7580869675277</v>
       </c>
-      <c r="F31" t="n">
+      <c r="I31" t="n">
         <v>2746.888033456399</v>
       </c>
-      <c r="G31" t="n">
+      <c r="J31" t="n">
         <v>7668.760837883447</v>
       </c>
-      <c r="H31" t="n">
+      <c r="K31" t="n">
         <v>303.5422697406088</v>
       </c>
-      <c r="I31" t="n">
+      <c r="L31" t="n">
         <v>0.009013839945249506</v>
       </c>
-      <c r="J31" t="n">
+      <c r="M31" t="n">
         <v>0.1438759103813995</v>
       </c>
     </row>
